--- a/data/Prioridades/PC_DROGAS_Norm.xlsx
+++ b/data/Prioridades/PC_DROGAS_Norm.xlsx
@@ -343,7 +343,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>0.41</v>
+        <v>0.21323296341891762</v>
       </c>
       <c r="C3" s="4">
         <v>0.262</v>
@@ -354,7 +354,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>0.43952</v>
+        <v>0.2285857367850797</v>
       </c>
       <c r="C4" s="4">
         <v>0.112</v>
@@ -365,7 +365,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0.82</v>
+        <v>0.42646592683783524</v>
       </c>
       <c r="C5" s="4">
         <v>0.07</v>
@@ -376,7 +376,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>0.87904</v>
+        <v>0.4571714735701594</v>
       </c>
       <c r="C6" s="4">
         <v>0.062</v>
@@ -387,7 +387,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>1.23</v>
+        <v>0.6396988902567529</v>
       </c>
       <c r="C7" s="4">
         <v>0.035</v>
@@ -398,7 +398,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>1.31856</v>
+        <v>0.6857572103552391</v>
       </c>
       <c r="C8" s="4">
         <v>0.033</v>
@@ -409,7 +409,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>1.75808</v>
+        <v>0.9143429471403188</v>
       </c>
       <c r="C9" s="4">
         <v>0.023</v>
@@ -420,7 +420,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>2.1976</v>
+        <v>1.1429286839253985</v>
       </c>
       <c r="C10" s="4">
         <v>0.018</v>
